--- a/biology/Zoologie/Heteroconger/Heteroconger.xlsx
+++ b/biology/Zoologie/Heteroconger/Heteroconger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteroconger (aussi nommé Taenioconger ou Taeniconger) est un genre de poissons longs et minces appelés hétérocongres ou anguilles tubicoles, représentés par la sous-famille des Heterocongrinae. Ces poissons vivent dans des grandes colonies (appelés "jardins"). La tête en avant, ils capturent le zooplancton apporté par le courant. Ils vivent constamment ancrés dans un terrier tubulaire creusé dans un banc de sable.  
 Ce genre et largement représenté par Heteroconger hassi, couramment appelé Hétérocongre tacheté ou anguille de jardin, ainsi que par Heteroconger cobra.  
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 octobre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 octobre 2014) :
 Heteroconger balteatus Castle &amp; Randall, 1999
 Heteroconger camelopardalis (Lubbock, 1980)
 Heteroconger canabus (Cowan &amp; Rosenblatt, 1974)
